--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed2/result_data_RandomForest.xlsx
@@ -468,18 +468,18 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.7601</v>
+        <v>-12.6864</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.2475</v>
+        <v>16.28760000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.82189999999999</v>
+        <v>-21.7341</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.506799999999995</v>
+        <v>-7.468699999999995</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.4933</v>
+        <v>16.5319</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.438700000000001</v>
+        <v>-7.455299999999998</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.7937</v>
+        <v>-21.64980000000001</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.94309999999999</v>
+        <v>-21.96399999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.8052</v>
+        <v>-12.73570000000001</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.4312</v>
+        <v>16.2737</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.15099999999998</v>
+        <v>-20.17909999999997</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.07909999999998</v>
+        <v>-20.17709999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,27 +842,27 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.5232</v>
+        <v>-12.2734</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.976899999999998</v>
+        <v>-8.028699999999997</v>
       </c>
       <c r="E24" t="n">
-        <v>16.71820000000001</v>
+        <v>16.74100000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.11839999999999</v>
+        <v>-22.48499999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.0019</v>
+        <v>-13.723</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.686499999999995</v>
+        <v>-9.210799999999997</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.14719999999997</v>
+        <v>-21.21489999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.59439999999999</v>
+        <v>-12.70549999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.74429999999999</v>
+        <v>16.60519999999999</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.71569999999998</v>
+        <v>-20.93989999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -944,13 +944,13 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.79259999999999</v>
+        <v>-12.9696</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.8325</v>
+        <v>15.94270000000001</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.81739999999999</v>
+        <v>-12.58</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.12140000000001</v>
+        <v>16.22200000000002</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>16.90240000000002</v>
+        <v>16.91770000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.47310000000001</v>
+        <v>-12.76750000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.31599999999999</v>
+        <v>-19.99539999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.440499999999991</v>
+        <v>-8.260299999999996</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1148,13 +1148,13 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.48679999999999</v>
+        <v>-12.65459999999999</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.39769999999999</v>
+        <v>16.3727</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.7051</v>
+        <v>-11.86059999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.132800000000001</v>
+        <v>-8.008500000000005</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.6246</v>
+        <v>-11.6871</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.2814</v>
+        <v>-11.3526</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.38820000000003</v>
+        <v>-22.56680000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.086000000000004</v>
+        <v>-6.304300000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.0157</v>
+        <v>-13.65869999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.52030000000001</v>
+        <v>16.41030000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-11.95059999999999</v>
+        <v>-11.46660000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.085599999999998</v>
+        <v>-8.097700000000005</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.01480000000001</v>
+        <v>-22.14419999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.9121</v>
+        <v>-13.30049999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.922799999999999</v>
+        <v>-8.864000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,15 +1423,15 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.413000000000009</v>
+        <v>-8.271800000000008</v>
       </c>
       <c r="E58" t="n">
-        <v>16.0635</v>
+        <v>16.13760000000002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.5814</v>
+        <v>-22.48669999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-12.91799999999999</v>
+        <v>-12.98019999999999</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.850099999999998</v>
+        <v>-7.9884</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.860400000000006</v>
+        <v>-7.898700000000002</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.857899999999997</v>
+        <v>-7.7751</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.79179999999998</v>
+        <v>-21.84349999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.08880000000002</v>
+        <v>17.06210000000002</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59249999999999</v>
+        <v>-21.58269999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.031900000000002</v>
+        <v>-8.062800000000005</v>
       </c>
       <c r="E70" t="n">
-        <v>16.885</v>
+        <v>16.82869999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.325299999999996</v>
+        <v>-7.358599999999995</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.58650000000001</v>
+        <v>-12.5151</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,13 +1692,13 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.40140000000001</v>
+        <v>-12.66670000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.88679999999998</v>
+        <v>16.76329999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.61490000000001</v>
+        <v>16.39120000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.5064</v>
+        <v>-20.68010000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0451</v>
+        <v>-21.77319999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.60970000000001</v>
+        <v>16.7065</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.8317</v>
+        <v>16.8437</v>
       </c>
     </row>
     <row r="85">
@@ -1899,10 +1899,10 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.602899999999996</v>
+        <v>-8.528900000000007</v>
       </c>
       <c r="E86" t="n">
-        <v>16.1569</v>
+        <v>16.0086</v>
       </c>
     </row>
     <row r="87">
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.3452</v>
+        <v>-10.3358</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.607000000000003</v>
+        <v>-5.612300000000002</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.61819999999999</v>
+        <v>-12.2266</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.39150000000002</v>
+        <v>-21.36350000000003</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.81689999999999</v>
+        <v>-10.6232</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.69879999999997</v>
+        <v>-20.93869999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.4493</v>
+        <v>16.0586</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.80490000000001</v>
+        <v>16.90510000000002</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.661199999999999</v>
+        <v>-8.772499999999994</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.18879999999999</v>
+        <v>-22.3749</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.414099999999998</v>
+        <v>-8.537600000000003</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.518199999999997</v>
+        <v>-7.350499999999994</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
